--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Oxt-Oxtr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Oxt-Oxtr.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3674443333333333</v>
+        <v>0.4557103333333333</v>
       </c>
       <c r="H2">
-        <v>1.102333</v>
+        <v>1.367131</v>
       </c>
       <c r="I2">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="J2">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07880966666666667</v>
+        <v>0.029575</v>
       </c>
       <c r="N2">
-        <v>0.236429</v>
+        <v>0.088725</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02895816542855555</v>
+        <v>0.01347763310833333</v>
       </c>
       <c r="R2">
-        <v>0.260623488857</v>
+        <v>0.121298697975</v>
       </c>
       <c r="S2">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="T2">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>2.028924</v>
       </c>
       <c r="I3">
-        <v>0.2558882030615162</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="J3">
-        <v>0.2558882030615163</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07880966666666667</v>
+        <v>0.029575</v>
       </c>
       <c r="N3">
-        <v>0.236429</v>
+        <v>0.088725</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.053299608044</v>
+        <v>0.0200018091</v>
       </c>
       <c r="R3">
-        <v>0.479696472396</v>
+        <v>0.1800162819</v>
       </c>
       <c r="S3">
-        <v>0.2558882030615162</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="T3">
-        <v>0.2558882030615163</v>
+        <v>0.2962807848215612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9146390000000001</v>
+        <v>0.3513206666666667</v>
       </c>
       <c r="H4">
-        <v>2.743917</v>
+        <v>1.053962</v>
       </c>
       <c r="I4">
-        <v>0.3460632288247102</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="J4">
-        <v>0.3460632288247103</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.07880966666666667</v>
+        <v>0.029575</v>
       </c>
       <c r="N4">
-        <v>0.236429</v>
+        <v>0.088725</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.07208239471033334</v>
+        <v>0.01039030871666667</v>
       </c>
       <c r="R4">
-        <v>0.648741552393</v>
+        <v>0.09351277845</v>
       </c>
       <c r="S4">
-        <v>0.3460632288247102</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="T4">
-        <v>0.3460632288247103</v>
+        <v>0.1539085192605057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.13526</v>
+        <v>0.3449053333333333</v>
       </c>
       <c r="H5">
-        <v>0.40578</v>
+        <v>1.034716</v>
       </c>
       <c r="I5">
-        <v>0.05117703523557415</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="J5">
-        <v>0.05117703523557417</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07880966666666667</v>
+        <v>0.029575</v>
       </c>
       <c r="N5">
-        <v>0.236429</v>
+        <v>0.088725</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.01065979551333334</v>
+        <v>0.01020057523333333</v>
       </c>
       <c r="R5">
-        <v>0.09593815962</v>
+        <v>0.0918051771</v>
       </c>
       <c r="S5">
-        <v>0.05117703523557415</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="T5">
-        <v>0.05117703523557417</v>
+        <v>0.1510980542136751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.549331</v>
+        <v>0.4544146666666666</v>
       </c>
       <c r="H6">
-        <v>1.647993</v>
+        <v>1.363244</v>
       </c>
       <c r="I6">
-        <v>0.2078451274803577</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="J6">
-        <v>0.2078451274803578</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07880966666666667</v>
+        <v>0.029575</v>
       </c>
       <c r="N6">
-        <v>0.236429</v>
+        <v>0.088725</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.04329259299966667</v>
+        <v>0.01343931376666667</v>
       </c>
       <c r="R6">
-        <v>0.389633336997</v>
+        <v>0.1209538239</v>
       </c>
       <c r="S6">
-        <v>0.2078451274803577</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="T6">
-        <v>0.2078451274803578</v>
+        <v>0.1990725144082698</v>
       </c>
     </row>
   </sheetData>
